--- a/src/PatioBlox.DataExport/Templates/Template_Violations.xlsx
+++ b/src/PatioBlox.DataExport/Templates/Template_Violations.xlsx
@@ -11,7 +11,7 @@
     <sheet name="&lt;#Config&gt;" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__Blox__">Sheet1!$A$2:$E$2</definedName>
+    <definedName name="__Items__">Sheet1!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -84,22 +84,22 @@
     <t>PalletQty</t>
   </si>
   <si>
-    <t>&lt;#Blox.ItemNumber&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Blox.Description&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Blox.PalletQuantity&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Blox.Barcode&gt;</t>
-  </si>
-  <si>
     <t>Patches</t>
   </si>
   <si>
-    <t>&lt;#Blox.AppearsOn&gt;</t>
+    <t>&lt;#Items.ItemNumber&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.Description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.PalletQuantity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.Barcode&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.AppearsOn&gt;</t>
   </si>
 </sst>
 </file>
@@ -584,21 +584,21 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
